--- a/附件1：长春市COVID-19疫情期间病毒感染人数数据.xlsx
+++ b/附件1：长春市COVID-19疫情期间病毒感染人数数据.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7A18A2-FF80-475E-8F9D-0188F5B48C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB82D249-59EF-4D5D-8758-7CE681BB201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1590" yWindow="4110" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2820" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增本土感染者" sheetId="1" r:id="rId1"/>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83:AA83"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>43894</v>
+        <v>44624</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -874,7 +874,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>43895</v>
+        <v>44625</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -939,7 +939,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>43896</v>
+        <v>44626</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>43897</v>
+        <v>44627</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>43898</v>
+        <v>44628</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>43899</v>
+        <v>44629</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>43900</v>
+        <v>44630</v>
       </c>
       <c r="B8" s="4">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>43901</v>
+        <v>44631</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>43902</v>
+        <v>44632</v>
       </c>
       <c r="B10" s="4">
         <v>5</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>43903</v>
+        <v>44633</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>43904</v>
+        <v>44634</v>
       </c>
       <c r="B12" s="4">
         <v>101</v>
@@ -1632,7 +1632,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>43905</v>
+        <v>44635</v>
       </c>
       <c r="B13" s="4">
         <v>22</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>43906</v>
+        <v>44636</v>
       </c>
       <c r="B14" s="4">
         <v>38</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>43907</v>
+        <v>44637</v>
       </c>
       <c r="B15" s="4">
         <v>29</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>43908</v>
+        <v>44638</v>
       </c>
       <c r="B16" s="4">
         <v>40</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>43909</v>
+        <v>44639</v>
       </c>
       <c r="B17" s="7">
         <v>105</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>43910</v>
+        <v>44640</v>
       </c>
       <c r="B18" s="7">
         <v>89</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>43911</v>
+        <v>44641</v>
       </c>
       <c r="B19" s="4">
         <v>63</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>43912</v>
+        <v>44642</v>
       </c>
       <c r="B20" s="7">
         <v>183</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>43913</v>
+        <v>44643</v>
       </c>
       <c r="B21" s="7">
         <v>118</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>43914</v>
+        <v>44644</v>
       </c>
       <c r="B22" s="4">
         <v>40</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>43915</v>
+        <v>44645</v>
       </c>
       <c r="B23" s="4">
         <v>24</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>43916</v>
+        <v>44646</v>
       </c>
       <c r="B24" s="7">
         <v>48</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>43917</v>
+        <v>44647</v>
       </c>
       <c r="B25" s="4">
         <v>35</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>43918</v>
+        <v>44648</v>
       </c>
       <c r="B26" s="7">
         <v>66</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>43919</v>
+        <v>44649</v>
       </c>
       <c r="B27" s="4">
         <v>44</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>43920</v>
+        <v>44650</v>
       </c>
       <c r="B28" s="7">
         <v>56</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>43921</v>
+        <v>44651</v>
       </c>
       <c r="B29" s="4">
         <v>89</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>43922</v>
+        <v>44652</v>
       </c>
       <c r="B30" s="7">
         <v>190</v>
@@ -3126,7 +3126,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>43923</v>
+        <v>44653</v>
       </c>
       <c r="B31" s="4">
         <v>44</v>
@@ -3209,7 +3209,7 @@
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>43924</v>
+        <v>44654</v>
       </c>
       <c r="B32" s="4">
         <v>74</v>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>43925</v>
+        <v>44655</v>
       </c>
       <c r="B33" s="7">
         <v>67</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>43926</v>
+        <v>44656</v>
       </c>
       <c r="B34" s="4">
         <v>80</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>43927</v>
+        <v>44657</v>
       </c>
       <c r="B35" s="7">
         <v>107</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>43928</v>
+        <v>44658</v>
       </c>
       <c r="B36" s="4">
         <v>35</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>43929</v>
+        <v>44659</v>
       </c>
       <c r="B37" s="4">
         <v>13</v>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>43930</v>
+        <v>44660</v>
       </c>
       <c r="B38" s="7">
         <v>19</v>
@@ -3790,7 +3790,7 @@
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>43931</v>
+        <v>44661</v>
       </c>
       <c r="B39" s="4">
         <v>3</v>
@@ -3873,7 +3873,7 @@
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>43932</v>
+        <v>44662</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>43933</v>
+        <v>44663</v>
       </c>
       <c r="B41" s="7">
         <v>13</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>43934</v>
+        <v>44664</v>
       </c>
       <c r="B42" s="4">
         <v>15</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>43935</v>
+        <v>44665</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>43936</v>
+        <v>44666</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>43937</v>
+        <v>44667</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>43938</v>
+        <v>44668</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>43939</v>
+        <v>44669</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>43940</v>
+        <v>44670</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>43941</v>
+        <v>44671</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>43942</v>
+        <v>44672</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -4642,7 +4642,7 @@
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>43943</v>
+        <v>44673</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
-        <v>43944</v>
+        <v>44674</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>43945</v>
+        <v>44675</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <v>43946</v>
+        <v>44676</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>43947</v>
+        <v>44677</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
-        <v>43948</v>
+        <v>44678</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5032,7 +5032,7 @@
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <v>43949</v>
+        <v>44679</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
-        <v>43950</v>
+        <v>44680</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
-        <v>43951</v>
+        <v>44681</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <v>43952</v>
+        <v>44682</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <v>43953</v>
+        <v>44683</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
-        <v>43954</v>
+        <v>44684</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <v>43955</v>
+        <v>44685</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>43956</v>
+        <v>44686</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>43957</v>
+        <v>44687</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
-        <v>43958</v>
+        <v>44688</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
-        <v>43959</v>
+        <v>44689</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
-        <v>43960</v>
+        <v>44690</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5812,7 +5812,7 @@
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
-        <v>43961</v>
+        <v>44691</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
-        <v>43962</v>
+        <v>44692</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
-        <v>43963</v>
+        <v>44693</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
-        <v>43964</v>
+        <v>44694</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
-        <v>43965</v>
+        <v>44695</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
-        <v>43966</v>
+        <v>44696</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
-        <v>43967</v>
+        <v>44697</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
-        <v>43968</v>
+        <v>44698</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
-        <v>43969</v>
+        <v>44699</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
-        <v>43970</v>
+        <v>44700</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
-        <v>43971</v>
+        <v>44701</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
-        <v>43972</v>
+        <v>44702</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
-        <v>43973</v>
+        <v>44703</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
-        <v>43974</v>
+        <v>44704</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6743,8 +6743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="R83" sqref="B83:R83"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
-        <v>43894</v>
+        <v>44624</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>43895</v>
+        <v>44625</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>43896</v>
+        <v>44626</v>
       </c>
       <c r="B4" s="4">
         <v>5</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
-        <v>43897</v>
+        <v>44627</v>
       </c>
       <c r="B5" s="4">
         <v>6</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>43898</v>
+        <v>44628</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -7096,7 +7096,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>43899</v>
+        <v>44629</v>
       </c>
       <c r="B7" s="4">
         <v>25</v>
@@ -7152,7 +7152,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>43900</v>
+        <v>44630</v>
       </c>
       <c r="B8" s="4">
         <v>21</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>43901</v>
+        <v>44631</v>
       </c>
       <c r="B9" s="4">
         <v>97</v>
@@ -7264,7 +7264,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>43902</v>
+        <v>44632</v>
       </c>
       <c r="B10" s="4">
         <v>42</v>
@@ -7320,7 +7320,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>43903</v>
+        <v>44633</v>
       </c>
       <c r="B11" s="4">
         <v>3</v>
@@ -7376,7 +7376,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>43904</v>
+        <v>44634</v>
       </c>
       <c r="B12" s="4">
         <v>3</v>
@@ -7432,7 +7432,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>43905</v>
+        <v>44635</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
@@ -7488,7 +7488,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>43906</v>
+        <v>44636</v>
       </c>
       <c r="B14" s="4">
         <v>5</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>43907</v>
+        <v>44637</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -7600,7 +7600,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>43908</v>
+        <v>44638</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -7656,7 +7656,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>43909</v>
+        <v>44639</v>
       </c>
       <c r="B17" s="4">
         <v>3</v>
@@ -7712,7 +7712,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
-        <v>43910</v>
+        <v>44640</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
@@ -7768,7 +7768,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>43911</v>
+        <v>44641</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>43912</v>
+        <v>44642</v>
       </c>
       <c r="B20" s="4">
         <v>0</v>
@@ -7880,7 +7880,7 @@
     </row>
     <row r="21" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>43913</v>
+        <v>44643</v>
       </c>
       <c r="B21" s="7">
         <v>253</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="22" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>43914</v>
+        <v>44644</v>
       </c>
       <c r="B22" s="7">
         <v>290</v>
@@ -7992,7 +7992,7 @@
     </row>
     <row r="23" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>43915</v>
+        <v>44645</v>
       </c>
       <c r="B23" s="7">
         <v>403</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="24" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>43916</v>
+        <v>44646</v>
       </c>
       <c r="B24" s="7">
         <v>495</v>
@@ -8104,7 +8104,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>43917</v>
+        <v>44647</v>
       </c>
       <c r="B25" s="4">
         <v>330</v>
@@ -8160,7 +8160,7 @@
     </row>
     <row r="26" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>43918</v>
+        <v>44648</v>
       </c>
       <c r="B26" s="7">
         <v>310</v>
@@ -8216,7 +8216,7 @@
     </row>
     <row r="27" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>43919</v>
+        <v>44649</v>
       </c>
       <c r="B27" s="7">
         <v>348</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="28" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>43920</v>
+        <v>44650</v>
       </c>
       <c r="B28" s="7">
         <v>422</v>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>43921</v>
+        <v>44651</v>
       </c>
       <c r="B29" s="4">
         <v>444</v>
@@ -8384,7 +8384,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>43922</v>
+        <v>44652</v>
       </c>
       <c r="B30" s="4">
         <v>894</v>
@@ -8440,7 +8440,7 @@
     </row>
     <row r="31" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
-        <v>43923</v>
+        <v>44653</v>
       </c>
       <c r="B31" s="7">
         <v>3100</v>
@@ -8496,7 +8496,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
-        <v>43924</v>
+        <v>44654</v>
       </c>
       <c r="B32" s="4">
         <v>2346</v>
@@ -8552,7 +8552,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="11">
-        <v>43925</v>
+        <v>44655</v>
       </c>
       <c r="B33" s="4">
         <v>1336</v>
@@ -8608,7 +8608,7 @@
     </row>
     <row r="34" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
-        <v>43926</v>
+        <v>44656</v>
       </c>
       <c r="B34" s="7">
         <v>1682</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
-        <v>43927</v>
+        <v>44657</v>
       </c>
       <c r="B35" s="4">
         <v>1423</v>
@@ -8720,7 +8720,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
-        <v>43928</v>
+        <v>44658</v>
       </c>
       <c r="B36" s="4">
         <v>1553</v>
@@ -8776,7 +8776,7 @@
     </row>
     <row r="37" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
-        <v>43929</v>
+        <v>44659</v>
       </c>
       <c r="B37" s="7">
         <v>648</v>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
-        <v>43930</v>
+        <v>44660</v>
       </c>
       <c r="B38" s="4">
         <v>703</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
-        <v>43931</v>
+        <v>44661</v>
       </c>
       <c r="B39" s="4">
         <v>743</v>
@@ -8944,7 +8944,7 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
-        <v>43932</v>
+        <v>44662</v>
       </c>
       <c r="B40" s="4">
         <v>570</v>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="41" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
-        <v>43933</v>
+        <v>44663</v>
       </c>
       <c r="B41" s="7">
         <v>801</v>
@@ -9056,7 +9056,7 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
-        <v>43934</v>
+        <v>44664</v>
       </c>
       <c r="B42" s="4">
         <v>621</v>
@@ -9112,7 +9112,7 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
-        <v>43935</v>
+        <v>44665</v>
       </c>
       <c r="B43" s="4">
         <v>298</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
-        <v>43936</v>
+        <v>44666</v>
       </c>
       <c r="B44" s="4">
         <v>407</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
-        <v>43937</v>
+        <v>44667</v>
       </c>
       <c r="B45" s="4">
         <v>491</v>
@@ -9280,7 +9280,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
-        <v>43938</v>
+        <v>44668</v>
       </c>
       <c r="B46" s="4">
         <v>348</v>
@@ -9336,7 +9336,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
-        <v>43939</v>
+        <v>44669</v>
       </c>
       <c r="B47" s="4">
         <v>365</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="11">
-        <v>43940</v>
+        <v>44670</v>
       </c>
       <c r="B48" s="4">
         <v>243</v>
@@ -9448,7 +9448,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="11">
-        <v>43941</v>
+        <v>44671</v>
       </c>
       <c r="B49" s="4">
         <v>233</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="11">
-        <v>43942</v>
+        <v>44672</v>
       </c>
       <c r="B50" s="4">
         <v>211</v>
@@ -9560,7 +9560,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
-        <v>43943</v>
+        <v>44673</v>
       </c>
       <c r="B51" s="4">
         <v>188</v>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="11">
-        <v>43944</v>
+        <v>44674</v>
       </c>
       <c r="B52" s="4">
         <v>127</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="11">
-        <v>43945</v>
+        <v>44675</v>
       </c>
       <c r="B53" s="4">
         <v>89</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="11">
-        <v>43946</v>
+        <v>44676</v>
       </c>
       <c r="B54" s="4">
         <v>89</v>
@@ -9784,7 +9784,7 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="11">
-        <v>43947</v>
+        <v>44677</v>
       </c>
       <c r="B55" s="4">
         <v>66</v>
@@ -9840,7 +9840,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="11">
-        <v>43948</v>
+        <v>44678</v>
       </c>
       <c r="B56" s="4">
         <v>89</v>
@@ -9896,7 +9896,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="11">
-        <v>43949</v>
+        <v>44679</v>
       </c>
       <c r="B57" s="4">
         <v>39</v>
@@ -9952,7 +9952,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="11">
-        <v>43950</v>
+        <v>44680</v>
       </c>
       <c r="B58" s="4">
         <v>29</v>
@@ -10008,7 +10008,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
-        <v>43951</v>
+        <v>44681</v>
       </c>
       <c r="B59" s="4">
         <v>23</v>
@@ -10064,7 +10064,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="11">
-        <v>43952</v>
+        <v>44682</v>
       </c>
       <c r="B60" s="4">
         <v>13</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="11">
-        <v>43953</v>
+        <v>44683</v>
       </c>
       <c r="B61" s="4">
         <v>20</v>
@@ -10176,7 +10176,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="11">
-        <v>43954</v>
+        <v>44684</v>
       </c>
       <c r="B62" s="4">
         <v>36</v>
@@ -10232,7 +10232,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="11">
-        <v>43955</v>
+        <v>44685</v>
       </c>
       <c r="B63" s="4">
         <v>18</v>
@@ -10288,7 +10288,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="11">
-        <v>43956</v>
+        <v>44686</v>
       </c>
       <c r="B64" s="4">
         <v>9</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="11">
-        <v>43957</v>
+        <v>44687</v>
       </c>
       <c r="B65" s="4">
         <v>20</v>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="11">
-        <v>43958</v>
+        <v>44688</v>
       </c>
       <c r="B66" s="4">
         <v>18</v>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="11">
-        <v>43959</v>
+        <v>44689</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
@@ -10512,7 +10512,7 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="11">
-        <v>43960</v>
+        <v>44690</v>
       </c>
       <c r="B68" s="4">
         <v>6</v>
@@ -10568,7 +10568,7 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="11">
-        <v>43961</v>
+        <v>44691</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="11">
-        <v>43962</v>
+        <v>44692</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -10680,7 +10680,7 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="11">
-        <v>43963</v>
+        <v>44693</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -10736,7 +10736,7 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="11">
-        <v>43964</v>
+        <v>44694</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -10792,7 +10792,7 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="11">
-        <v>43965</v>
+        <v>44695</v>
       </c>
       <c r="B73" s="4">
         <v>1</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="11">
-        <v>43966</v>
+        <v>44696</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -10904,7 +10904,7 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="11">
-        <v>43967</v>
+        <v>44697</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -10960,7 +10960,7 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="11">
-        <v>43968</v>
+        <v>44698</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
@@ -11016,7 +11016,7 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="11">
-        <v>43969</v>
+        <v>44699</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="11">
-        <v>43970</v>
+        <v>44700</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -11128,7 +11128,7 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="11">
-        <v>43971</v>
+        <v>44701</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="11">
-        <v>43972</v>
+        <v>44702</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -11240,7 +11240,7 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="11">
-        <v>43973</v>
+        <v>44703</v>
       </c>
       <c r="B81" s="4">
         <v>0</v>
@@ -11296,7 +11296,7 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="11">
-        <v>43974</v>
+        <v>44704</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
